--- a/A5 - pyla2/29-09-2023_14-10-47/tratamento5.xlsx
+++ b/A5 - pyla2/29-09-2023_14-10-47/tratamento5.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3CE5C65-C672-4049-858F-073D748D8FF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE5B0EB-F2FF-48B5-AC11-D8EE12B124BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cru" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,10 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Cru!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Cru!$B$2:$B$105</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Processado!$E$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Processado!$E$2:$E$200</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Processado!$E$2:$E$91</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Processado!$B$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Processado!$B$2:$B$200</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Processado!$B$2:$B$91</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Processado!$B$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Processado!$B$2:$B$200</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Processado!$E$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Processado!$E$2:$E$200</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -91,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -281,12 +279,21 @@
   <si>
     <t>Estatística descritiva</t>
   </si>
+  <si>
+    <t>Cobrim. S brilho</t>
+  </si>
+  <si>
+    <t>Media S brilho</t>
+  </si>
+  <si>
+    <t>Desv. Pad. S brilho</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +344,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -352,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -417,12 +431,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,10 +497,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -488,8 +514,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4443,7 +4475,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Processado!$F$10:$F$11</c:f>
+              <c:f>Processado!$G$12:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4458,7 +4490,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Processado!$F$2,Processado!$F$2)</c:f>
+              <c:f>(Processado!$G$2,Processado!$G$2)</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="2"/>
@@ -4776,6 +4808,1282 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Área de Cobertura</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Processado!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cobrim. S brilho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Processado!$A$2:$A$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Processado!$F$2:$F$200</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="199"/>
+                <c:pt idx="0">
+                  <c:v>46.17334009123163</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.408445576993088</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.662045060658578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37.431469298245617</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.41916304596387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.952098346757101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43.756762605496647</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.452571967909392</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.076021487872374</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.981573179641202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58.022158391464913</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.469281663516071</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.24658985564826</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.130809836487707</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.180944421228581</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.264009962640102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>61.707535885167466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.352434195201489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.309863888422115</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>65.308475879300403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>64.893806889166513</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.477197931358724</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.147679324894511</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.93145305248126</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34.946083995459702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>56.934511288739309</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.95531257428096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>58.681384248210023</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.944184528342944</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.814191348817388</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.479679051107624</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.298275072508012</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>71.350300459526338</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>54.703282828282831</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>85.738412460123854</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.364461738002596</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.23361823361823</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.701959191960206</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>74.996715280515048</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56.13972869935278</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>39.865190178141553</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>66.331964095542375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>62.333921769023505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>69.045436689799658</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>75.837683111634959</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43.404641942677792</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44.405594405594407</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69.150995575221245</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38.375057950857673</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.058479532163744</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.784452296819786</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59.755816632112413</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68.996437784056013</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45.855105211128375</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59.045488441461593</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>59.990335829910606</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40.998998497746619</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>69.876864551006108</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>75.647840531561457</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38.926812408191481</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.590163934426229</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.29454306377383</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>48.66404963910346</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>59.650954653937944</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>60.984848484848484</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46.847736625514401</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58.339019397602108</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>53.363895428075828</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>70.963981816062471</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>39.773005634032828</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>78.767123287671239</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>47.730329522528578</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38.345564773452459</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34.956093051918039</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>71.405282034561466</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>59.927916120576668</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>47.705183585313172</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50.226928895612708</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51.368760064412236</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>48.037876718565052</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>53.759796653251428</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.565217391304351</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68.953068592057761</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>53.876898481215029</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>49.948992603927572</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>80.820610687022906</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>62.022471910112358</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45.922208281053955</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40.190550262492707</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>49.659653465346537</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>49.691876750700281</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.469977994341399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.867019267094818</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.843893480257115</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>48.561464690496948</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>59.400758864320295</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40.580212667591312</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>66.225165562913901</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>54.417042954729652</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>56.745875883739195</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50.106542498618893</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>71.957326366209443</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>31.613372093023255</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>38.044692737430168</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>57.898817600310139</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45.607967907041086</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>73.248491209656265</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>57.640821736249173</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>48.015553767766157</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>70.565365300502194</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>78.900402993667242</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>57.233820459290186</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>47.334219465367006</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>77.729403884795715</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>60.344559987583423</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>55.511939810271507</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>83.963765454768023</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FB1-4E04-AAF1-895C5837C01E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="841016384"/>
+        <c:axId val="842969072"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="841016384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="842969072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="842969072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="841016384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -4819,9 +6127,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -4838,20 +6145,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>normalidade!$I$4:$I$13</c:f>
+              <c:f>normalidade!$I$4:$I$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(0,00; 29,42]</c:v>
                 </c:pt>
@@ -4881,16 +6202,25 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(70,38; 75,5]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(75,5; 80,62]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(80,62; 85,74]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(85,74; ∞)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>normalidade!$L$4:$L$13</c:f>
+              <c:f>normalidade!$L$4:$L$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.85470085470085466</c:v>
                 </c:pt>
@@ -4920,10 +6250,20 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>6.8376068376068373</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.2735042735042734</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5641025641025643</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3C7C-41E0-9BCB-63F08E8A130B}"/>
@@ -4945,20 +6285,34 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>normalidade!$I$4:$I$13</c:f>
+              <c:f>normalidade!$I$4:$I$16</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>(0,00; 29,42]</c:v>
                 </c:pt>
@@ -4988,16 +6342,25 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>(70,38; 75,5]</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>(75,5; 80,62]</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>(80,62; 85,74]</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>(85,74; ∞)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>normalidade!$M$4:$M$13</c:f>
+              <c:f>normalidade!$M$4:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.3765730993220244</c:v>
                 </c:pt>
@@ -5027,10 +6390,20 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.5454834182307566</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0037756907007607</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4073700392052357</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85127308949982661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3C7C-41E0-9BCB-63F08E8A130B}"/>
@@ -5045,11 +6418,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="200"/>
-        <c:overlap val="-20"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1539222943"/>
         <c:axId val="1539223359"/>
-      </c:barChart>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="1539222943"/>
         <c:scaling>
@@ -5154,12 +6527,7 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -5405,7 +6773,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5443,7 +6811,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AE582C71-A888-454F-86A2-796C8767D210}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>Pixels Agregados</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5471,7 +6839,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5509,7 +6877,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BDF0065E-0469-4BFC-B593-BB490CDEB64D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>Cobrimento</cx:v>
             </cx:txData>
           </cx:tx>
@@ -5852,6 +7220,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -9462,6 +10870,522 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10089,13 +12013,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>518820</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93120</xdr:rowOff>
@@ -10167,13 +12091,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>495960</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>93120</xdr:rowOff>
@@ -10205,13 +12129,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>518820</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>169320</xdr:rowOff>
@@ -10283,13 +12207,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>495960</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>169320</xdr:rowOff>
@@ -10321,13 +12245,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>81600</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>87360</xdr:rowOff>
@@ -10352,6 +12276,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>526440</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD8D6B9F-DE1E-49A7-8526-6A72609BB569}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10785,7 +12747,7 @@
   <dimension ref="A1:U200"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13542,10 +15504,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70EAAED-2E1F-4803-8270-B1973955EBA5}">
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13555,11 +15517,12 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13575,14 +15538,17 @@
       <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13598,15 +15564,19 @@
       <c r="E2" s="3">
         <v>46.173340091231601</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="32">
+        <f>IF(B2=0,"",100*(C2)/B2)</f>
+        <v>46.17334009123163</v>
+      </c>
+      <c r="G2" s="10">
         <f>AVERAGE(E2:E200)</f>
         <v>53.850009319271926</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13622,15 +15592,19 @@
       <c r="E3" s="3">
         <v>74.408445576993003</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="32">
+        <f t="shared" ref="F3:F66" si="0">IF(B3=0,"",100*(C3)/B3)</f>
+        <v>74.408445576993088</v>
+      </c>
+      <c r="G3" s="10">
         <f>_xlfn.STDEV.S(E2:E200)</f>
         <v>13.363914279377305</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13646,14 +15620,19 @@
       <c r="E4" s="3">
         <v>34.6620450606585</v>
       </c>
-      <c r="F4" s="11">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="32">
+        <f t="shared" si="0"/>
+        <v>34.662045060658578</v>
+      </c>
+      <c r="G4" s="33">
+        <f>AVERAGE(F2:F200)</f>
+        <v>53.785538689912435</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13669,14 +15648,19 @@
       <c r="E5" s="3">
         <v>37.431469298245602</v>
       </c>
-      <c r="F5" s="11">
-        <v>232</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="32">
+        <f t="shared" si="0"/>
+        <v>37.431469298245617</v>
+      </c>
+      <c r="G5" s="33">
+        <f>_xlfn.STDEV.S(F2:F200)</f>
+        <v>13.335460649398518</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -13692,84 +15676,101 @@
       <c r="E6" s="3">
         <v>29.419163045963799</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="32">
+        <f t="shared" si="0"/>
+        <v>29.41916304596387</v>
+      </c>
+      <c r="G6" s="11">
+        <v>15</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>9436</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3015</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>31.952098346757101</v>
+      </c>
+      <c r="F7" s="32">
+        <f t="shared" si="0"/>
+        <v>31.952098346757101</v>
+      </c>
+      <c r="G7" s="11">
+        <v>232</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>9242</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4044</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43.756762605496597</v>
+      </c>
+      <c r="F8" s="32">
+        <f t="shared" si="0"/>
+        <v>43.756762605496647</v>
+      </c>
+      <c r="G8" s="12">
         <f>MIN(E2:E200)</f>
         <v>29.419163045963799</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>9436</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3015</v>
-      </c>
-      <c r="D7" s="3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>6357</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2508</v>
+      </c>
+      <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="3">
-        <v>31.952098346757101</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="E9" s="3">
+        <v>39.4525719679093</v>
+      </c>
+      <c r="F9" s="32">
+        <f t="shared" si="0"/>
+        <v>39.452571967909392</v>
+      </c>
+      <c r="G9" s="12">
         <f>MAX(E2:E200)</f>
         <v>85.738412460123797</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>9242</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4044</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43.756762605496597</v>
-      </c>
-      <c r="F8" s="13">
-        <f>100*F3/F2</f>
-        <v>24.816921015080691</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>6357</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2508</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>39.4525719679093</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -13785,14 +15786,19 @@
       <c r="E10" s="3">
         <v>31.0760214878723</v>
       </c>
-      <c r="F10" s="11">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="32">
+        <f t="shared" si="0"/>
+        <v>31.076021487872374</v>
+      </c>
+      <c r="G10" s="13">
+        <f>100*G3/G2</f>
+        <v>24.816921015080691</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -13808,50 +15814,71 @@
       <c r="E11" s="3">
         <v>32.981573179641202</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="32">
+        <f t="shared" si="0"/>
+        <v>32.981573179641202</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>7311</v>
+      </c>
+      <c r="C12" s="3">
+        <v>4242</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>58.022158391464899</v>
+      </c>
+      <c r="F12" s="32">
+        <f t="shared" si="0"/>
+        <v>58.022158391464913</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>8464</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4441</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>52.469281663516</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="0"/>
+        <v>52.469281663516071</v>
+      </c>
+      <c r="G13" s="11">
         <f>COUNT(A2:A200)</f>
         <v>117</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7311</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4242</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>58.022158391464899</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>8464</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4441</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>52.469281663516</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -13867,9 +15894,13 @@
       <c r="E14" s="3">
         <v>38.246589855648203</v>
       </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F14" s="32">
+        <f t="shared" si="0"/>
+        <v>38.24658985564826</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -13885,8 +15916,12 @@
       <c r="E15" s="3">
         <v>52.1308098364877</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="32">
+        <f t="shared" si="0"/>
+        <v>52.130809836487707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -13902,8 +15937,12 @@
       <c r="E16" s="3">
         <v>44.180944421228503</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="32">
+        <f t="shared" si="0"/>
+        <v>44.180944421228581</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -13919,8 +15958,12 @@
       <c r="E17" s="3">
         <v>46.264009962640102</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="32">
+        <f t="shared" si="0"/>
+        <v>46.264009962640102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -13936,8 +15979,12 @@
       <c r="E18" s="3">
         <v>61.707535885167403</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="32">
+        <f t="shared" si="0"/>
+        <v>61.707535885167466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -13953,8 +16000,12 @@
       <c r="E19" s="3">
         <v>59.352434195201397</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="32">
+        <f t="shared" si="0"/>
+        <v>59.352434195201489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -13970,8 +16021,12 @@
       <c r="E20" s="3">
         <v>56.3098638884221</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="32">
+        <f t="shared" si="0"/>
+        <v>56.309863888422115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -13987,8 +16042,12 @@
       <c r="E21" s="3">
         <v>65.308475879300403</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="32">
+        <f t="shared" si="0"/>
+        <v>65.308475879300403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -14004,8 +16063,12 @@
       <c r="E22" s="3">
         <v>64.893806889166498</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="32">
+        <f t="shared" si="0"/>
+        <v>64.893806889166513</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -14021,8 +16084,12 @@
       <c r="E23" s="3">
         <v>55.477197931358702</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23" s="32">
+        <f t="shared" si="0"/>
+        <v>55.477197931358724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -14038,8 +16105,12 @@
       <c r="E24" s="3">
         <v>70.147679324894497</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24" s="32">
+        <f t="shared" si="0"/>
+        <v>70.147679324894511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14055,8 +16126,12 @@
       <c r="E25" s="3">
         <v>41.931453052481203</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="32">
+        <f t="shared" si="0"/>
+        <v>41.93145305248126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -14072,8 +16147,12 @@
       <c r="E26" s="3">
         <v>34.946083995459702</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="32">
+        <f t="shared" si="0"/>
+        <v>34.946083995459702</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -14089,8 +16168,12 @@
       <c r="E27" s="3">
         <v>56.934511288739301</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="32">
+        <f t="shared" si="0"/>
+        <v>56.934511288739309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -14106,8 +16189,12 @@
       <c r="E28" s="3">
         <v>34.181126693605897</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="32">
+        <f t="shared" si="0"/>
+        <v>33.95531257428096</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -14123,8 +16210,12 @@
       <c r="E29" s="3">
         <v>58.681384248210001</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="32">
+        <f t="shared" si="0"/>
+        <v>58.681384248210023</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -14140,8 +16231,12 @@
       <c r="E30" s="3">
         <v>42.944184528342902</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="32">
+        <f t="shared" si="0"/>
+        <v>42.944184528342944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -14157,8 +16252,12 @@
       <c r="E31" s="3">
         <v>53.814191348817303</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="32">
+        <f t="shared" si="0"/>
+        <v>53.814191348817388</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -14174,8 +16273,12 @@
       <c r="E32" s="3">
         <v>50.479679051107603</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="32">
+        <f t="shared" si="0"/>
+        <v>50.479679051107624</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -14191,8 +16294,12 @@
       <c r="E33" s="3">
         <v>46.298275072507998</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="32">
+        <f t="shared" si="0"/>
+        <v>46.298275072508012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -14208,8 +16315,12 @@
       <c r="E34" s="3">
         <v>71.350300459526295</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="32">
+        <f t="shared" si="0"/>
+        <v>71.350300459526338</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -14225,8 +16336,12 @@
       <c r="E35" s="3">
         <v>54.703282828282802</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="32">
+        <f t="shared" si="0"/>
+        <v>54.703282828282831</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -14242,8 +16357,12 @@
       <c r="E36" s="3">
         <v>85.738412460123797</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="32">
+        <f t="shared" si="0"/>
+        <v>85.738412460123854</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -14259,8 +16378,12 @@
       <c r="E37" s="3">
         <v>49.364461738002497</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="32">
+        <f t="shared" si="0"/>
+        <v>49.364461738002596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -14276,8 +16399,12 @@
       <c r="E38" s="3">
         <v>33.233618233618202</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="32">
+        <f t="shared" si="0"/>
+        <v>33.23361823361823</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -14293,8 +16420,12 @@
       <c r="E39" s="3">
         <v>35.701959191960199</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="32">
+        <f t="shared" si="0"/>
+        <v>35.701959191960206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -14310,8 +16441,12 @@
       <c r="E40" s="3">
         <v>75.404020496649494</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="32">
+        <f t="shared" si="0"/>
+        <v>74.996715280515048</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -14327,8 +16462,12 @@
       <c r="E41" s="3">
         <v>56.396843691816599</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="32">
+        <f t="shared" si="0"/>
+        <v>56.13972869935278</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -14344,8 +16483,12 @@
       <c r="E42" s="3">
         <v>39.865190178141503</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="32">
+        <f t="shared" si="0"/>
+        <v>39.865190178141553</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -14361,8 +16504,12 @@
       <c r="E43" s="3">
         <v>66.331964095542304</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="32">
+        <f t="shared" si="0"/>
+        <v>66.331964095542375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -14378,8 +16525,12 @@
       <c r="E44" s="3">
         <v>62.789185171420598</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="32">
+        <f t="shared" si="0"/>
+        <v>62.333921769023505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -14395,8 +16546,12 @@
       <c r="E45" s="3">
         <v>69.097813277464894</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="32">
+        <f t="shared" si="0"/>
+        <v>69.045436689799658</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -14412,8 +16567,12 @@
       <c r="E46" s="3">
         <v>75.837683111634902</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="32">
+        <f t="shared" si="0"/>
+        <v>75.837683111634959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -14429,8 +16588,12 @@
       <c r="E47" s="3">
         <v>43.404641942677699</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="32">
+        <f t="shared" si="0"/>
+        <v>43.404641942677792</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -14446,8 +16609,12 @@
       <c r="E48" s="3">
         <v>44.428904428904403</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="32">
+        <f t="shared" si="0"/>
+        <v>44.405594405594407</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -14463,8 +16630,12 @@
       <c r="E49" s="3">
         <v>69.150995575221202</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="32">
+        <f t="shared" si="0"/>
+        <v>69.150995575221245</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -14480,8 +16651,12 @@
       <c r="E50" s="3">
         <v>38.375057950857602</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="32">
+        <f t="shared" si="0"/>
+        <v>38.375057950857673</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -14497,8 +16672,12 @@
       <c r="E51" s="3">
         <v>50.058479532163702</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="32">
+        <f t="shared" si="0"/>
+        <v>50.058479532163744</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -14514,8 +16693,12 @@
       <c r="E52" s="3">
         <v>51.837455830388599</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="32">
+        <f t="shared" si="0"/>
+        <v>51.784452296819786</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -14531,8 +16714,12 @@
       <c r="E53" s="3">
         <v>59.755816632112399</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="32">
+        <f t="shared" si="0"/>
+        <v>59.755816632112413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -14548,8 +16735,12 @@
       <c r="E54" s="3">
         <v>68.996437784055999</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="32">
+        <f t="shared" si="0"/>
+        <v>68.996437784056013</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -14565,8 +16756,12 @@
       <c r="E55" s="3">
         <v>45.855105211128297</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="32">
+        <f t="shared" si="0"/>
+        <v>45.855105211128375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -14582,8 +16777,12 @@
       <c r="E56" s="3">
         <v>59.045488441461501</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="32">
+        <f t="shared" si="0"/>
+        <v>59.045488441461593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -14599,8 +16798,12 @@
       <c r="E57" s="3">
         <v>59.990335829910599</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="32">
+        <f t="shared" si="0"/>
+        <v>59.990335829910606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -14616,8 +16819,12 @@
       <c r="E58" s="3">
         <v>40.998998497746598</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="32">
+        <f t="shared" si="0"/>
+        <v>40.998998497746619</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -14633,8 +16840,12 @@
       <c r="E59" s="3">
         <v>69.876864551006094</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="32">
+        <f t="shared" si="0"/>
+        <v>69.876864551006108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -14650,8 +16861,12 @@
       <c r="E60" s="3">
         <v>75.6478405315614</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="32">
+        <f t="shared" si="0"/>
+        <v>75.647840531561457</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -14667,8 +16882,12 @@
       <c r="E61" s="3">
         <v>39.324289294046402</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="32">
+        <f t="shared" si="0"/>
+        <v>38.926812408191481</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -14684,8 +16903,12 @@
       <c r="E62" s="3">
         <v>44.739195230998497</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="32">
+        <f t="shared" si="0"/>
+        <v>44.590163934426229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14701,8 +16924,12 @@
       <c r="E63" s="3">
         <v>62.294543063773801</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="32">
+        <f t="shared" si="0"/>
+        <v>62.29454306377383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14718,8 +16945,12 @@
       <c r="E64" s="3">
         <v>48.664049639103403</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="32">
+        <f t="shared" si="0"/>
+        <v>48.66404963910346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14735,8 +16966,12 @@
       <c r="E65" s="3">
         <v>59.650954653937902</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="32">
+        <f t="shared" si="0"/>
+        <v>59.650954653937944</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14752,8 +16987,12 @@
       <c r="E66" s="3">
         <v>60.984848484848399</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="32">
+        <f t="shared" si="0"/>
+        <v>60.984848484848484</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -14769,8 +17008,12 @@
       <c r="E67" s="3">
         <v>46.847736625514401</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="32">
+        <f t="shared" ref="F67:F130" si="1">IF(B67=0,"",100*(C67)/B67)</f>
+        <v>46.847736625514401</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -14786,8 +17029,12 @@
       <c r="E68" s="3">
         <v>61.243785944049101</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="32">
+        <f t="shared" si="1"/>
+        <v>58.339019397602108</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -14803,8 +17050,12 @@
       <c r="E69" s="3">
         <v>53.3638954280758</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="32">
+        <f t="shared" si="1"/>
+        <v>53.363895428075828</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -14820,8 +17071,12 @@
       <c r="E70" s="3">
         <v>70.9639818160624</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="32">
+        <f t="shared" si="1"/>
+        <v>70.963981816062471</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -14837,8 +17092,12 @@
       <c r="E71" s="3">
         <v>39.821997223809902</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="32">
+        <f t="shared" si="1"/>
+        <v>39.773005634032828</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -14854,8 +17113,12 @@
       <c r="E72" s="3">
         <v>78.767123287671197</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="32">
+        <f t="shared" si="1"/>
+        <v>78.767123287671239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -14871,8 +17134,12 @@
       <c r="E73" s="3">
         <v>47.7303295225285</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="32">
+        <f t="shared" si="1"/>
+        <v>47.730329522528578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -14888,8 +17155,12 @@
       <c r="E74" s="3">
         <v>38.345564773452402</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="32">
+        <f t="shared" si="1"/>
+        <v>38.345564773452459</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -14905,8 +17176,12 @@
       <c r="E75" s="3">
         <v>34.971498998613399</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="32">
+        <f t="shared" si="1"/>
+        <v>34.956093051918039</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -14922,8 +17197,12 @@
       <c r="E76" s="3">
         <v>72.3345288555591</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="32">
+        <f t="shared" si="1"/>
+        <v>71.405282034561466</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -14939,8 +17218,12 @@
       <c r="E77" s="3">
         <v>59.944298820445603</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="32">
+        <f t="shared" si="1"/>
+        <v>59.927916120576668</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -14956,8 +17239,12 @@
       <c r="E78" s="3">
         <v>47.786177105831499</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="32">
+        <f t="shared" si="1"/>
+        <v>47.705183585313172</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -14973,8 +17260,12 @@
       <c r="E79" s="3">
         <v>50.453857791225403</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="32">
+        <f t="shared" si="1"/>
+        <v>50.226928895612708</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -14990,8 +17281,12 @@
       <c r="E80" s="3">
         <v>51.3687600644122</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="32">
+        <f t="shared" si="1"/>
+        <v>51.368760064412236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -15007,8 +17302,12 @@
       <c r="E81" s="3">
         <v>48.138031503232199</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="32">
+        <f t="shared" si="1"/>
+        <v>48.037876718565052</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -15024,8 +17323,12 @@
       <c r="E82" s="3">
         <v>53.855115441643697</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="32">
+        <f t="shared" si="1"/>
+        <v>53.759796653251428</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -15041,8 +17344,12 @@
       <c r="E83" s="3">
         <v>44.565217391304301</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="32">
+        <f t="shared" si="1"/>
+        <v>44.565217391304351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -15058,8 +17365,12 @@
       <c r="E84" s="3">
         <v>68.953068592057704</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="32">
+        <f t="shared" si="1"/>
+        <v>68.953068592057761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -15075,8 +17386,12 @@
       <c r="E85" s="3">
         <v>53.876898481215001</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="32">
+        <f t="shared" si="1"/>
+        <v>53.876898481215029</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -15092,8 +17407,12 @@
       <c r="E86" s="3">
         <v>50.076511094108596</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="32">
+        <f t="shared" si="1"/>
+        <v>49.948992603927572</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -15109,8 +17428,12 @@
       <c r="E87" s="3">
         <v>80.820610687022906</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="32">
+        <f t="shared" si="1"/>
+        <v>80.820610687022906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -15126,8 +17449,12 @@
       <c r="E88" s="3">
         <v>62.022471910112301</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="32">
+        <f t="shared" si="1"/>
+        <v>62.022471910112358</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -15143,8 +17470,12 @@
       <c r="E89" s="3">
         <v>45.922208281053898</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="32">
+        <f t="shared" si="1"/>
+        <v>45.922208281053955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -15160,8 +17491,12 @@
       <c r="E90" s="3">
         <v>40.2002722146607</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="32">
+        <f t="shared" si="1"/>
+        <v>40.190550262492707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -15177,8 +17512,12 @@
       <c r="E91" s="3">
         <v>49.659653465346501</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="32">
+        <f t="shared" si="1"/>
+        <v>49.659653465346537</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -15194,8 +17533,12 @@
       <c r="E92" s="3">
         <v>49.703081232492998</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="32">
+        <f t="shared" si="1"/>
+        <v>49.691876750700281</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -15211,8 +17554,12 @@
       <c r="E93" s="3">
         <v>55.469977994341399</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="32">
+        <f t="shared" si="1"/>
+        <v>55.469977994341399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -15228,8 +17575,12 @@
       <c r="E94" s="3">
         <v>65.867019267094804</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="32">
+        <f t="shared" si="1"/>
+        <v>65.867019267094818</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -15245,8 +17596,12 @@
       <c r="E95" s="3">
         <v>29.843893480257101</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="32">
+        <f t="shared" si="1"/>
+        <v>29.843893480257115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -15262,8 +17617,12 @@
       <c r="E96" s="3">
         <v>48.561464690496898</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="32">
+        <f t="shared" si="1"/>
+        <v>48.561464690496948</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -15279,8 +17638,12 @@
       <c r="E97" s="3">
         <v>59.400758864320203</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="32">
+        <f t="shared" si="1"/>
+        <v>59.400758864320295</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -15296,8 +17659,12 @@
       <c r="E98" s="3">
         <v>40.580212667591297</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="32">
+        <f t="shared" si="1"/>
+        <v>40.580212667591312</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -15313,8 +17680,12 @@
       <c r="E99" s="3">
         <v>66.225165562913901</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="32">
+        <f t="shared" si="1"/>
+        <v>66.225165562913901</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -15330,8 +17701,12 @@
       <c r="E100" s="3">
         <v>54.417042954729602</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="32">
+        <f t="shared" si="1"/>
+        <v>54.417042954729652</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -15347,8 +17722,12 @@
       <c r="E101" s="3">
         <v>56.745875883739103</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="32">
+        <f t="shared" si="1"/>
+        <v>56.745875883739195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -15364,8 +17743,12 @@
       <c r="E102" s="3">
         <v>50.169678794096697</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="32">
+        <f t="shared" si="1"/>
+        <v>50.106542498618893</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -15381,8 +17764,12 @@
       <c r="E103" s="3">
         <v>71.957326366209401</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="32">
+        <f t="shared" si="1"/>
+        <v>71.957326366209443</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -15398,8 +17785,12 @@
       <c r="E104" s="3">
         <v>31.6279069767441</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="32">
+        <f t="shared" si="1"/>
+        <v>31.613372093023255</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -15415,8 +17806,12 @@
       <c r="E105" s="3">
         <v>38.198324022346299</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="32">
+        <f t="shared" si="1"/>
+        <v>38.044692737430168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -15432,8 +17827,12 @@
       <c r="E106" s="3">
         <v>57.898817600310103</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="32">
+        <f t="shared" si="1"/>
+        <v>57.898817600310139</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -15449,8 +17848,12 @@
       <c r="E107" s="3">
         <v>45.635634250933698</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="32">
+        <f t="shared" si="1"/>
+        <v>45.607967907041086</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -15466,8 +17869,12 @@
       <c r="E108" s="3">
         <v>73.589609026502202</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="32">
+        <f t="shared" si="1"/>
+        <v>73.248491209656265</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -15483,8 +17890,12 @@
       <c r="E109" s="3">
         <v>57.640821736249102</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="32">
+        <f t="shared" si="1"/>
+        <v>57.640821736249173</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -15500,8 +17911,12 @@
       <c r="E110" s="3">
         <v>48.0155537677661</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="32">
+        <f t="shared" si="1"/>
+        <v>48.015553767766157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -15517,8 +17932,12 @@
       <c r="E111" s="3">
         <v>70.6301636157459</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="32">
+        <f t="shared" si="1"/>
+        <v>70.565365300502194</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -15534,8 +17953,12 @@
       <c r="E112" s="3">
         <v>79.159470351180104</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="32">
+        <f t="shared" si="1"/>
+        <v>78.900402993667242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -15551,8 +17974,12 @@
       <c r="E113" s="3">
         <v>57.254697286012501</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="32">
+        <f t="shared" si="1"/>
+        <v>57.233820459290186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -15568,8 +17995,12 @@
       <c r="E114" s="3">
         <v>47.334219465366999</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="32">
+        <f t="shared" si="1"/>
+        <v>47.334219465367006</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -15585,8 +18016,12 @@
       <c r="E115" s="3">
         <v>77.729403884795701</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="32">
+        <f t="shared" si="1"/>
+        <v>77.729403884795715</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -15602,8 +18037,12 @@
       <c r="E116" s="3">
         <v>60.344559987583402</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="32">
+        <f t="shared" si="1"/>
+        <v>60.344559987583423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -15619,8 +18058,12 @@
       <c r="E117" s="3">
         <v>55.5228437465925</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="32">
+        <f t="shared" si="1"/>
+        <v>55.511939810271507</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -15636,584 +18079,916 @@
       <c r="E118" s="3">
         <v>83.963765454767994</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="32">
+        <f t="shared" si="1"/>
+        <v>83.963765454768023</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="32" t="str">
+        <f t="shared" ref="F131:F194" si="2">IF(B131=0,"",100*(C131)/B131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F141" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F145" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="32" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="32" t="str">
+        <f t="shared" ref="F195:F200" si="3">IF(B195=0,"",100*(C195)/B195)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
+      <c r="F200" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16225,8 +19000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{839320EC-8AE6-4613-BBEF-991D248D30FB}">
   <dimension ref="B2:V17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16251,29 +19026,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="H2" s="25" t="s">
+      <c r="C2" s="27"/>
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="P2" s="26" t="s">
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="P2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="U2" s="26" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="U2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="26"/>
+      <c r="V2" s="27"/>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -16324,7 +19099,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="15">
-        <f>Processado!F2</f>
+        <f>Processado!G2</f>
         <v>53.850009319271926</v>
       </c>
       <c r="D4" s="15"/>
@@ -16383,7 +19158,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="15">
-        <f>Processado!F3</f>
+        <f>Processado!G3</f>
         <v>13.363914279377305</v>
       </c>
       <c r="D5" s="15"/>
@@ -16414,7 +19189,7 @@
         <v>4.0462598359200763</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ref="P5:P15" si="2">I5</f>
+        <f t="shared" ref="P5:P14" si="2">I5</f>
         <v>(29,42; 34,54]</v>
       </c>
       <c r="Q5" s="15">
@@ -16441,7 +19216,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="15">
-        <f>Processado!F6</f>
+        <f>Processado!G8</f>
         <v>29.419163045963799</v>
       </c>
       <c r="D6" s="15"/>
@@ -16500,7 +19275,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="15">
-        <f>Processado!F7</f>
+        <f>Processado!G9</f>
         <v>85.738412460123797</v>
       </c>
       <c r="D7" s="15"/>
@@ -16716,11 +19491,11 @@
         <f t="shared" si="4"/>
         <v>0.21036074586655915</v>
       </c>
-      <c r="U10" s="27" t="str">
+      <c r="U10" s="28" t="str">
         <f>IF(S17&lt;V9,"Há indícios de normalidade","NÃO há indícios de normalidade")</f>
         <v>Há indícios de normalidade</v>
       </c>
-      <c r="V10" s="27"/>
+      <c r="V10" s="28"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
@@ -16773,8 +19548,8 @@
         <f t="shared" si="4"/>
         <v>2.7845089958018487</v>
       </c>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
+      <c r="U11" s="29"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H12" s="15">
@@ -16817,8 +19592,8 @@
         <f>((Q12-R12)^2)/R12</f>
         <v>1.2602571888318623E-2</v>
       </c>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="H13" s="15">
@@ -16868,7 +19643,7 @@
         <v>80.618480695200148</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ref="I14:I15" si="11">_xlfn.CONCAT("(",ROUND(H13, 2),"; ", IF(ISNUMBER(H14),_xlfn.CONCAT(ROUND(H14, 2),"]"),_xlfn.CONCAT(H14,")")))</f>
+        <f t="shared" ref="I14" si="11">_xlfn.CONCAT("(",ROUND(H13, 2),"; ", IF(ISNUMBER(H14),_xlfn.CONCAT(ROUND(H14, 2),"]"),_xlfn.CONCAT(H14,")")))</f>
         <v>(75,5; 80,62]</v>
       </c>
       <c r="J14">
@@ -16876,31 +19651,31 @@
         <v>114</v>
       </c>
       <c r="K14">
-        <f t="shared" ref="K14:K15" si="12">J14-J13</f>
+        <f t="shared" ref="K14" si="12">J14-J13</f>
         <v>5</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" ref="L14:L15" si="13">100*K14/$C$9</f>
+        <f t="shared" ref="L14" si="13">100*K14/$C$9</f>
         <v>4.2735042735042734</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="8"/>
         <v>3.0037756907007607</v>
       </c>
-      <c r="P14" s="29" t="str">
+      <c r="P14" s="23" t="str">
         <f t="shared" si="2"/>
         <v>(75,5; 80,62]</v>
       </c>
-      <c r="Q14" s="30">
-        <f t="shared" ref="Q14:Q15" si="14">K14</f>
+      <c r="Q14" s="24">
+        <f t="shared" ref="Q14" si="14">K14</f>
         <v>5</v>
       </c>
-      <c r="R14" s="30">
-        <f t="shared" ref="R14:R15" si="15">M14*$C$9/100</f>
+      <c r="R14" s="24">
+        <f t="shared" ref="R14" si="15">M14*$C$9/100</f>
         <v>3.5144175581198902</v>
       </c>
-      <c r="S14" s="30">
-        <f t="shared" ref="S14:S15" si="16">((Q14-R14)^2)/R14</f>
+      <c r="S14" s="24">
+        <f t="shared" ref="S14" si="16">((Q14-R14)^2)/R14</f>
         <v>0.62797182040119492</v>
       </c>
     </row>
@@ -16929,19 +19704,19 @@
         <f t="shared" si="8"/>
         <v>1.4073700392052357</v>
       </c>
-      <c r="P15" s="29" t="str">
+      <c r="P15" s="23" t="str">
         <f t="shared" ref="P15:P16" si="20">I15</f>
         <v>(80,62; 85,74]</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="24">
         <f t="shared" ref="Q15:Q16" si="21">K15</f>
         <v>3</v>
       </c>
-      <c r="R15" s="30">
+      <c r="R15" s="24">
         <f t="shared" ref="R15:R16" si="22">M15*$C$9/100</f>
         <v>1.6466229458701258</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="24">
         <f t="shared" ref="S15:S16" si="23">((Q15-R15)^2)/R15</f>
         <v>1.1123551115567429</v>
       </c>
